--- a/media/kuzets_download_fiz.xlsx
+++ b/media/kuzets_download_fiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F68998-A116-D042-8BAA-24CA924A37B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4D2166-0546-8B40-B0C8-36942670722F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1480,7 +1480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2037,20 +2037,8 @@
     <xf numFmtId="1" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2079,8 +2067,80 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2527,20 +2587,20 @@
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="201" t="s">
+      <c r="D7" s="197" t="s">
         <v>284</v>
       </c>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
-      <c r="H7" s="201"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="201"/>
-      <c r="K7" s="201"/>
-      <c r="L7" s="201"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="201"/>
-      <c r="O7" s="201"/>
+      <c r="E7" s="197"/>
+      <c r="F7" s="197"/>
+      <c r="G7" s="197"/>
+      <c r="H7" s="197"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="197"/>
+      <c r="K7" s="197"/>
+      <c r="L7" s="197"/>
+      <c r="M7" s="197"/>
+      <c r="N7" s="197"/>
+      <c r="O7" s="197"/>
       <c r="P7" s="35"/>
     </row>
     <row r="8" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6549,13 +6609,13 @@
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
-      <c r="D94" s="202" t="s">
+      <c r="D94" s="198" t="s">
         <v>285</v>
       </c>
-      <c r="E94" s="202"/>
-      <c r="F94" s="203"/>
-      <c r="G94" s="203"/>
-      <c r="H94" s="203"/>
+      <c r="E94" s="198"/>
+      <c r="F94" s="199"/>
+      <c r="G94" s="199"/>
+      <c r="H94" s="199"/>
       <c r="I94" s="34"/>
       <c r="J94" s="110">
         <f>E91+E92</f>
@@ -6597,13 +6657,13 @@
       <c r="E96" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F96" s="202" t="s">
+      <c r="F96" s="198" t="s">
         <v>32</v>
       </c>
-      <c r="G96" s="202"/>
-      <c r="H96" s="202"/>
-      <c r="I96" s="203"/>
-      <c r="J96" s="203"/>
+      <c r="G96" s="198"/>
+      <c r="H96" s="198"/>
+      <c r="I96" s="199"/>
+      <c r="J96" s="199"/>
     </row>
     <row r="97" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="13"/>
@@ -7853,20 +7913,20 @@
       <c r="A7" s="163"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
-      <c r="D7" s="204" t="s">
+      <c r="D7" s="200" t="s">
         <v>297</v>
       </c>
-      <c r="E7" s="204"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="204"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="204"/>
-      <c r="K7" s="204"/>
-      <c r="L7" s="204"/>
-      <c r="M7" s="204"/>
-      <c r="N7" s="204"/>
-      <c r="O7" s="204"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="200"/>
+      <c r="K7" s="200"/>
+      <c r="L7" s="200"/>
+      <c r="M7" s="200"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="22"/>
     </row>
@@ -7875,7 +7935,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="118" customFormat="1" ht="106" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" s="118" customFormat="1" ht="109" x14ac:dyDescent="0.15">
       <c r="A9" s="128" t="s">
         <v>301</v>
       </c>
@@ -8278,8 +8338,8 @@
         <v>10960</v>
       </c>
       <c r="Q15" s="137"/>
-      <c r="R15" s="205"/>
-      <c r="S15" s="206"/>
+      <c r="R15" s="201"/>
+      <c r="S15" s="202"/>
     </row>
     <row r="16" spans="1:20" s="138" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A16" s="139">
@@ -9081,18 +9141,18 @@
       <c r="A36" s="118"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
-      <c r="D36" s="207" t="s">
+      <c r="D36" s="203" t="s">
         <v>296</v>
       </c>
-      <c r="E36" s="207"/>
-      <c r="F36" s="207"/>
-      <c r="G36" s="207"/>
-      <c r="H36" s="207"/>
-      <c r="I36" s="208">
+      <c r="E36" s="203"/>
+      <c r="F36" s="203"/>
+      <c r="G36" s="203"/>
+      <c r="H36" s="203"/>
+      <c r="I36" s="204">
         <f>E34+E35</f>
         <v>157696</v>
       </c>
-      <c r="J36" s="208"/>
+      <c r="J36" s="204"/>
       <c r="M36" s="122"/>
       <c r="N36" s="122"/>
       <c r="O36" s="122"/>
@@ -9105,14 +9165,14 @@
         <v>21</v>
       </c>
       <c r="E37" s="161"/>
-      <c r="G37" s="209"/>
-      <c r="H37" s="209"/>
-      <c r="I37" s="209"/>
-      <c r="J37" s="209"/>
-      <c r="K37" s="209"/>
-      <c r="L37" s="209"/>
-      <c r="M37" s="209"/>
-      <c r="N37" s="209"/>
+      <c r="G37" s="205"/>
+      <c r="H37" s="205"/>
+      <c r="I37" s="205"/>
+      <c r="J37" s="205"/>
+      <c r="K37" s="205"/>
+      <c r="L37" s="205"/>
+      <c r="M37" s="205"/>
+      <c r="N37" s="205"/>
       <c r="O37" s="118"/>
       <c r="P37" s="122"/>
       <c r="Q37" s="40"/>
@@ -10599,20 +10659,20 @@
       <c r="A7" s="163"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
-      <c r="D7" s="204" t="s">
+      <c r="D7" s="200" t="s">
         <v>286</v>
       </c>
-      <c r="E7" s="204"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="204"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="204"/>
-      <c r="K7" s="204"/>
-      <c r="L7" s="204"/>
-      <c r="M7" s="204"/>
-      <c r="N7" s="204"/>
-      <c r="O7" s="204"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="200"/>
+      <c r="K7" s="200"/>
+      <c r="L7" s="200"/>
+      <c r="M7" s="200"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="22"/>
     </row>
@@ -11016,8 +11076,8 @@
         <v>10960</v>
       </c>
       <c r="Q15" s="137"/>
-      <c r="R15" s="205"/>
-      <c r="S15" s="206"/>
+      <c r="R15" s="201"/>
+      <c r="S15" s="202"/>
     </row>
     <row r="16" spans="1:19" s="138" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A16" s="139">
@@ -11781,18 +11841,18 @@
       <c r="A36" s="118"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
-      <c r="D36" s="207" t="s">
+      <c r="D36" s="203" t="s">
         <v>285</v>
       </c>
-      <c r="E36" s="207"/>
-      <c r="F36" s="207"/>
-      <c r="G36" s="207"/>
-      <c r="H36" s="207"/>
-      <c r="I36" s="208">
+      <c r="E36" s="203"/>
+      <c r="F36" s="203"/>
+      <c r="G36" s="203"/>
+      <c r="H36" s="203"/>
+      <c r="I36" s="204">
         <f>E34+E35</f>
         <v>142820</v>
       </c>
-      <c r="J36" s="208"/>
+      <c r="J36" s="204"/>
       <c r="M36" s="122"/>
       <c r="N36" s="122"/>
       <c r="O36" s="122"/>
@@ -11805,14 +11865,14 @@
         <v>21</v>
       </c>
       <c r="E37" s="161"/>
-      <c r="G37" s="209"/>
-      <c r="H37" s="209"/>
-      <c r="I37" s="209"/>
-      <c r="J37" s="209"/>
-      <c r="K37" s="209"/>
-      <c r="L37" s="209"/>
-      <c r="M37" s="209"/>
-      <c r="N37" s="209"/>
+      <c r="G37" s="205"/>
+      <c r="H37" s="205"/>
+      <c r="I37" s="205"/>
+      <c r="J37" s="205"/>
+      <c r="K37" s="205"/>
+      <c r="L37" s="205"/>
+      <c r="M37" s="205"/>
+      <c r="N37" s="205"/>
       <c r="O37" s="118"/>
       <c r="P37" s="122"/>
       <c r="Q37" s="40"/>
@@ -13295,20 +13355,20 @@
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="201" t="s">
+      <c r="D7" s="197" t="s">
         <v>289</v>
       </c>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
-      <c r="H7" s="201"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="201"/>
-      <c r="K7" s="201"/>
-      <c r="L7" s="201"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="201"/>
-      <c r="O7" s="201"/>
+      <c r="E7" s="197"/>
+      <c r="F7" s="197"/>
+      <c r="G7" s="197"/>
+      <c r="H7" s="197"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="197"/>
+      <c r="K7" s="197"/>
+      <c r="L7" s="197"/>
+      <c r="M7" s="197"/>
+      <c r="N7" s="197"/>
+      <c r="O7" s="197"/>
       <c r="P7" s="35"/>
     </row>
     <row r="8" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -17317,13 +17377,13 @@
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
-      <c r="D94" s="202" t="s">
+      <c r="D94" s="198" t="s">
         <v>288</v>
       </c>
-      <c r="E94" s="202"/>
-      <c r="F94" s="203"/>
-      <c r="G94" s="203"/>
-      <c r="H94" s="203"/>
+      <c r="E94" s="198"/>
+      <c r="F94" s="199"/>
+      <c r="G94" s="199"/>
+      <c r="H94" s="199"/>
       <c r="I94" s="34"/>
       <c r="J94" s="110">
         <f>E91+E92</f>
@@ -17365,13 +17425,13 @@
       <c r="E96" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F96" s="202" t="s">
+      <c r="F96" s="198" t="s">
         <v>32</v>
       </c>
-      <c r="G96" s="202"/>
-      <c r="H96" s="202"/>
-      <c r="I96" s="203"/>
-      <c r="J96" s="203"/>
+      <c r="G96" s="198"/>
+      <c r="H96" s="198"/>
+      <c r="I96" s="199"/>
+      <c r="J96" s="199"/>
     </row>
     <row r="97" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="13"/>
@@ -18619,20 +18679,20 @@
       <c r="A7" s="163"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
-      <c r="D7" s="204" t="s">
+      <c r="D7" s="200" t="s">
         <v>287</v>
       </c>
-      <c r="E7" s="204"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="204"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="204"/>
-      <c r="K7" s="204"/>
-      <c r="L7" s="204"/>
-      <c r="M7" s="204"/>
-      <c r="N7" s="204"/>
-      <c r="O7" s="204"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="200"/>
+      <c r="K7" s="200"/>
+      <c r="L7" s="200"/>
+      <c r="M7" s="200"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="22"/>
     </row>
@@ -19036,8 +19096,8 @@
         <v>10960</v>
       </c>
       <c r="Q15" s="137"/>
-      <c r="R15" s="205"/>
-      <c r="S15" s="206"/>
+      <c r="R15" s="201"/>
+      <c r="S15" s="202"/>
     </row>
     <row r="16" spans="1:19" s="138" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A16" s="139">
@@ -19801,18 +19861,18 @@
       <c r="A36" s="118"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
-      <c r="D36" s="207" t="s">
+      <c r="D36" s="203" t="s">
         <v>288</v>
       </c>
-      <c r="E36" s="207"/>
-      <c r="F36" s="207"/>
-      <c r="G36" s="207"/>
-      <c r="H36" s="207"/>
-      <c r="I36" s="208">
+      <c r="E36" s="203"/>
+      <c r="F36" s="203"/>
+      <c r="G36" s="203"/>
+      <c r="H36" s="203"/>
+      <c r="I36" s="204">
         <f>E34+E35</f>
         <v>142820</v>
       </c>
-      <c r="J36" s="208"/>
+      <c r="J36" s="204"/>
       <c r="M36" s="122"/>
       <c r="N36" s="122"/>
       <c r="O36" s="122"/>
@@ -19825,14 +19885,14 @@
         <v>21</v>
       </c>
       <c r="E37" s="161"/>
-      <c r="G37" s="209"/>
-      <c r="H37" s="209"/>
-      <c r="I37" s="209"/>
-      <c r="J37" s="209"/>
-      <c r="K37" s="209"/>
-      <c r="L37" s="209"/>
-      <c r="M37" s="209"/>
-      <c r="N37" s="209"/>
+      <c r="G37" s="205"/>
+      <c r="H37" s="205"/>
+      <c r="I37" s="205"/>
+      <c r="J37" s="205"/>
+      <c r="K37" s="205"/>
+      <c r="L37" s="205"/>
+      <c r="M37" s="205"/>
+      <c r="N37" s="205"/>
       <c r="O37" s="118"/>
       <c r="P37" s="122"/>
       <c r="Q37" s="40"/>
@@ -21315,20 +21375,20 @@
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="201" t="s">
+      <c r="D7" s="197" t="s">
         <v>294</v>
       </c>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
-      <c r="H7" s="201"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="201"/>
-      <c r="K7" s="201"/>
-      <c r="L7" s="201"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="201"/>
-      <c r="O7" s="201"/>
+      <c r="E7" s="197"/>
+      <c r="F7" s="197"/>
+      <c r="G7" s="197"/>
+      <c r="H7" s="197"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="197"/>
+      <c r="K7" s="197"/>
+      <c r="L7" s="197"/>
+      <c r="M7" s="197"/>
+      <c r="N7" s="197"/>
+      <c r="O7" s="197"/>
       <c r="P7" s="35"/>
     </row>
     <row r="8" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -25338,13 +25398,13 @@
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
-      <c r="D94" s="202" t="s">
+      <c r="D94" s="198" t="s">
         <v>293</v>
       </c>
-      <c r="E94" s="202"/>
-      <c r="F94" s="203"/>
-      <c r="G94" s="203"/>
-      <c r="H94" s="203"/>
+      <c r="E94" s="198"/>
+      <c r="F94" s="199"/>
+      <c r="G94" s="199"/>
+      <c r="H94" s="199"/>
       <c r="I94" s="34"/>
       <c r="J94" s="110">
         <f>E91+E92</f>
@@ -25386,13 +25446,13 @@
       <c r="E96" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F96" s="202" t="s">
+      <c r="F96" s="198" t="s">
         <v>32</v>
       </c>
-      <c r="G96" s="202"/>
-      <c r="H96" s="202"/>
-      <c r="I96" s="203"/>
-      <c r="J96" s="203"/>
+      <c r="G96" s="198"/>
+      <c r="H96" s="198"/>
+      <c r="I96" s="199"/>
+      <c r="J96" s="199"/>
     </row>
     <row r="97" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="13"/>
@@ -26640,20 +26700,20 @@
       <c r="A7" s="163"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
-      <c r="D7" s="204" t="s">
+      <c r="D7" s="200" t="s">
         <v>292</v>
       </c>
-      <c r="E7" s="204"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="204"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="204"/>
-      <c r="K7" s="204"/>
-      <c r="L7" s="204"/>
-      <c r="M7" s="204"/>
-      <c r="N7" s="204"/>
-      <c r="O7" s="204"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="200"/>
+      <c r="K7" s="200"/>
+      <c r="L7" s="200"/>
+      <c r="M7" s="200"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="22"/>
     </row>
@@ -27117,8 +27177,8 @@
         <v>10960</v>
       </c>
       <c r="Q16" s="137"/>
-      <c r="R16" s="205"/>
-      <c r="S16" s="206"/>
+      <c r="R16" s="201"/>
+      <c r="S16" s="202"/>
     </row>
     <row r="17" spans="1:18" s="138" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A17" s="139">
@@ -27882,18 +27942,18 @@
       <c r="A37" s="118"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
-      <c r="D37" s="207" t="s">
+      <c r="D37" s="203" t="s">
         <v>293</v>
       </c>
-      <c r="E37" s="207"/>
-      <c r="F37" s="207"/>
-      <c r="G37" s="207"/>
-      <c r="H37" s="207"/>
-      <c r="I37" s="208">
+      <c r="E37" s="203"/>
+      <c r="F37" s="203"/>
+      <c r="G37" s="203"/>
+      <c r="H37" s="203"/>
+      <c r="I37" s="204">
         <f>E35+E36</f>
         <v>143199</v>
       </c>
-      <c r="J37" s="208"/>
+      <c r="J37" s="204"/>
       <c r="M37" s="122"/>
       <c r="N37" s="122"/>
       <c r="O37" s="122"/>
@@ -27906,14 +27966,14 @@
         <v>21</v>
       </c>
       <c r="E38" s="161"/>
-      <c r="G38" s="209"/>
-      <c r="H38" s="209"/>
-      <c r="I38" s="209"/>
-      <c r="J38" s="209"/>
-      <c r="K38" s="209"/>
-      <c r="L38" s="209"/>
-      <c r="M38" s="209"/>
-      <c r="N38" s="209"/>
+      <c r="G38" s="205"/>
+      <c r="H38" s="205"/>
+      <c r="I38" s="205"/>
+      <c r="J38" s="205"/>
+      <c r="K38" s="205"/>
+      <c r="L38" s="205"/>
+      <c r="M38" s="205"/>
+      <c r="N38" s="205"/>
       <c r="O38" s="118"/>
       <c r="P38" s="122"/>
       <c r="Q38" s="40"/>
@@ -29396,20 +29456,20 @@
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="201" t="s">
+      <c r="D7" s="197" t="s">
         <v>295</v>
       </c>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
-      <c r="H7" s="201"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="201"/>
-      <c r="K7" s="201"/>
-      <c r="L7" s="201"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="201"/>
-      <c r="O7" s="201"/>
+      <c r="E7" s="197"/>
+      <c r="F7" s="197"/>
+      <c r="G7" s="197"/>
+      <c r="H7" s="197"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="197"/>
+      <c r="K7" s="197"/>
+      <c r="L7" s="197"/>
+      <c r="M7" s="197"/>
+      <c r="N7" s="197"/>
+      <c r="O7" s="197"/>
       <c r="P7" s="35"/>
     </row>
     <row r="8" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -33367,13 +33427,13 @@
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
-      <c r="D93" s="202" t="s">
+      <c r="D93" s="198" t="s">
         <v>296</v>
       </c>
-      <c r="E93" s="202"/>
-      <c r="F93" s="203"/>
-      <c r="G93" s="203"/>
-      <c r="H93" s="203"/>
+      <c r="E93" s="198"/>
+      <c r="F93" s="199"/>
+      <c r="G93" s="199"/>
+      <c r="H93" s="199"/>
       <c r="I93" s="34"/>
       <c r="J93" s="110">
         <f>E90+E91</f>
@@ -33415,13 +33475,13 @@
       <c r="E95" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F95" s="202" t="s">
+      <c r="F95" s="198" t="s">
         <v>32</v>
       </c>
-      <c r="G95" s="202"/>
-      <c r="H95" s="202"/>
-      <c r="I95" s="203"/>
-      <c r="J95" s="203"/>
+      <c r="G95" s="198"/>
+      <c r="H95" s="198"/>
+      <c r="I95" s="199"/>
+      <c r="J95" s="199"/>
     </row>
     <row r="96" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="13"/>
@@ -34668,20 +34728,20 @@
       <c r="A7" s="163"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
-      <c r="D7" s="204" t="s">
+      <c r="D7" s="200" t="s">
         <v>297</v>
       </c>
-      <c r="E7" s="204"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="204"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="204"/>
-      <c r="K7" s="204"/>
-      <c r="L7" s="204"/>
-      <c r="M7" s="204"/>
-      <c r="N7" s="204"/>
-      <c r="O7" s="204"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="200"/>
+      <c r="K7" s="200"/>
+      <c r="L7" s="200"/>
+      <c r="M7" s="200"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="22"/>
     </row>
@@ -34690,7 +34750,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="118" customFormat="1" ht="107" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" s="118" customFormat="1" ht="111" x14ac:dyDescent="0.15">
       <c r="A9" s="128" t="s">
         <v>301</v>
       </c>
@@ -35087,8 +35147,8 @@
         <v>10960</v>
       </c>
       <c r="Q15" s="137"/>
-      <c r="R15" s="205"/>
-      <c r="S15" s="206"/>
+      <c r="R15" s="201"/>
+      <c r="S15" s="202"/>
     </row>
     <row r="16" spans="1:19" s="138" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A16" s="139">
@@ -35890,18 +35950,18 @@
       <c r="A36" s="118"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
-      <c r="D36" s="207" t="s">
+      <c r="D36" s="203" t="s">
         <v>296</v>
       </c>
-      <c r="E36" s="207"/>
-      <c r="F36" s="207"/>
-      <c r="G36" s="207"/>
-      <c r="H36" s="207"/>
-      <c r="I36" s="208">
+      <c r="E36" s="203"/>
+      <c r="F36" s="203"/>
+      <c r="G36" s="203"/>
+      <c r="H36" s="203"/>
+      <c r="I36" s="204">
         <f>E34+E35</f>
         <v>151120</v>
       </c>
-      <c r="J36" s="208"/>
+      <c r="J36" s="204"/>
       <c r="M36" s="122"/>
       <c r="N36" s="122"/>
       <c r="O36" s="122"/>
@@ -35914,14 +35974,14 @@
         <v>21</v>
       </c>
       <c r="E37" s="161"/>
-      <c r="G37" s="209"/>
-      <c r="H37" s="209"/>
-      <c r="I37" s="209"/>
-      <c r="J37" s="209"/>
-      <c r="K37" s="209"/>
-      <c r="L37" s="209"/>
-      <c r="M37" s="209"/>
-      <c r="N37" s="209"/>
+      <c r="G37" s="205"/>
+      <c r="H37" s="205"/>
+      <c r="I37" s="205"/>
+      <c r="J37" s="205"/>
+      <c r="K37" s="205"/>
+      <c r="L37" s="205"/>
+      <c r="M37" s="205"/>
+      <c r="N37" s="205"/>
       <c r="O37" s="118"/>
       <c r="P37" s="122"/>
       <c r="Q37" s="40"/>
@@ -37265,8 +37325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T159"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A71" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37396,22 +37456,22 @@
       <c r="N6" s="19"/>
     </row>
     <row r="7" spans="1:20" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="201" t="s">
+      <c r="A7" s="197" t="s">
         <v>311</v>
       </c>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
-      <c r="H7" s="201"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="201"/>
-      <c r="K7" s="201"/>
-      <c r="L7" s="201"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="201"/>
+      <c r="B7" s="197"/>
+      <c r="C7" s="197"/>
+      <c r="D7" s="197"/>
+      <c r="E7" s="197"/>
+      <c r="F7" s="197"/>
+      <c r="G7" s="197"/>
+      <c r="H7" s="197"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="197"/>
+      <c r="K7" s="197"/>
+      <c r="L7" s="197"/>
+      <c r="M7" s="197"/>
+      <c r="N7" s="197"/>
       <c r="O7" s="35"/>
     </row>
     <row r="8" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -37568,66 +37628,66 @@
     <row r="16" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="50"/>
       <c r="B16" s="50"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
       <c r="J16" s="61"/>
       <c r="K16" s="61"/>
-      <c r="L16" s="37"/>
+      <c r="L16" s="61"/>
       <c r="M16" s="61"/>
-      <c r="N16" s="42"/>
+      <c r="N16" s="229"/>
     </row>
     <row r="17" spans="1:14" s="192" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="186"/>
-      <c r="B17" s="186"/>
-      <c r="C17" s="187"/>
-      <c r="D17" s="187"/>
-      <c r="E17" s="188"/>
-      <c r="F17" s="189"/>
-      <c r="G17" s="189"/>
-      <c r="H17" s="190"/>
-      <c r="I17" s="190"/>
-      <c r="J17" s="190"/>
-      <c r="K17" s="190"/>
-      <c r="L17" s="190"/>
-      <c r="M17" s="190"/>
-      <c r="N17" s="199"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="230"/>
     </row>
     <row r="18" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="50"/>
       <c r="B18" s="50"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
       <c r="J18" s="61"/>
       <c r="K18" s="61"/>
-      <c r="L18" s="37"/>
+      <c r="L18" s="61"/>
       <c r="M18" s="61"/>
-      <c r="N18" s="25"/>
+      <c r="N18" s="83"/>
     </row>
     <row r="19" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="50"/>
       <c r="B19" s="50"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
       <c r="J19" s="61"/>
       <c r="K19" s="61"/>
-      <c r="L19" s="37"/>
+      <c r="L19" s="61"/>
       <c r="M19" s="61"/>
-      <c r="N19" s="25"/>
+      <c r="N19" s="83"/>
     </row>
     <row r="20" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="50"/>
@@ -37635,10 +37695,10 @@
       <c r="C20" s="51"/>
       <c r="D20" s="51"/>
       <c r="E20" s="59"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
       <c r="J20" s="61"/>
       <c r="K20" s="61"/>
       <c r="L20" s="61"/>
@@ -37648,50 +37708,50 @@
     <row r="21" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="50"/>
       <c r="B21" s="50"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
       <c r="J21" s="61"/>
       <c r="K21" s="61"/>
-      <c r="L21" s="37"/>
+      <c r="L21" s="61"/>
       <c r="M21" s="61"/>
-      <c r="N21" s="25"/>
+      <c r="N21" s="83"/>
     </row>
     <row r="22" spans="1:14" s="192" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="186"/>
-      <c r="B22" s="186"/>
-      <c r="C22" s="187"/>
-      <c r="D22" s="187"/>
-      <c r="E22" s="188"/>
-      <c r="F22" s="189"/>
-      <c r="G22" s="189"/>
-      <c r="H22" s="190"/>
-      <c r="I22" s="190"/>
-      <c r="J22" s="190"/>
-      <c r="K22" s="190"/>
-      <c r="L22" s="190"/>
-      <c r="M22" s="190"/>
-      <c r="N22" s="199"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="230"/>
     </row>
     <row r="23" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="50"/>
       <c r="B23" s="50"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
       <c r="J23" s="61"/>
       <c r="K23" s="61"/>
-      <c r="L23" s="37"/>
+      <c r="L23" s="61"/>
       <c r="M23" s="61"/>
-      <c r="N23" s="25"/>
+      <c r="N23" s="83"/>
     </row>
     <row r="24" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="50"/>
@@ -38577,209 +38637,213 @@
       <c r="N78" s="172"/>
     </row>
     <row r="79" spans="1:14" s="192" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="196"/>
-      <c r="B79" s="196"/>
-      <c r="C79" s="197"/>
-      <c r="D79" s="197"/>
-      <c r="E79" s="198"/>
-      <c r="F79" s="189"/>
-      <c r="G79" s="189"/>
-      <c r="H79" s="190"/>
-      <c r="I79" s="190"/>
-      <c r="J79" s="190"/>
-      <c r="K79" s="190"/>
-      <c r="L79" s="190"/>
-      <c r="M79" s="190"/>
-      <c r="N79" s="200"/>
+      <c r="A79" s="50"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="60"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="61"/>
+      <c r="I79" s="61"/>
+      <c r="J79" s="61"/>
+      <c r="K79" s="61"/>
+      <c r="L79" s="61"/>
+      <c r="M79" s="61"/>
+      <c r="N79" s="228"/>
     </row>
     <row r="80" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="67"/>
-      <c r="B80" s="67"/>
-      <c r="C80" s="97"/>
-      <c r="D80" s="97"/>
-      <c r="E80" s="116"/>
-      <c r="F80" s="49"/>
-      <c r="G80" s="49"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="61"/>
-      <c r="K80" s="61"/>
-      <c r="L80" s="101"/>
-      <c r="M80" s="61"/>
-      <c r="N80" s="117"/>
+      <c r="A80" s="206"/>
+      <c r="B80" s="206"/>
+      <c r="C80" s="207"/>
+      <c r="D80" s="207"/>
+      <c r="E80" s="208"/>
+      <c r="F80" s="209"/>
+      <c r="G80" s="209"/>
+      <c r="H80" s="210"/>
+      <c r="I80" s="210"/>
+      <c r="J80" s="211"/>
+      <c r="K80" s="211"/>
+      <c r="L80" s="210"/>
+      <c r="M80" s="211"/>
+      <c r="N80" s="212"/>
     </row>
     <row r="81" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="67"/>
-      <c r="B81" s="67"/>
-      <c r="C81" s="97"/>
-      <c r="D81" s="97"/>
-      <c r="E81" s="116"/>
-      <c r="F81" s="49"/>
-      <c r="G81" s="49"/>
-      <c r="H81" s="37"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="61"/>
-      <c r="K81" s="61"/>
-      <c r="L81" s="101"/>
-      <c r="M81" s="61"/>
-      <c r="N81" s="117"/>
+      <c r="A81" s="206"/>
+      <c r="B81" s="206"/>
+      <c r="C81" s="207"/>
+      <c r="D81" s="207"/>
+      <c r="E81" s="208"/>
+      <c r="F81" s="209"/>
+      <c r="G81" s="209"/>
+      <c r="H81" s="210"/>
+      <c r="I81" s="210"/>
+      <c r="J81" s="211"/>
+      <c r="K81" s="211"/>
+      <c r="L81" s="210"/>
+      <c r="M81" s="211"/>
+      <c r="N81" s="212"/>
     </row>
     <row r="82" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="67"/>
-      <c r="B82" s="67"/>
-      <c r="C82" s="97"/>
-      <c r="D82" s="97"/>
-      <c r="E82" s="116"/>
-      <c r="F82" s="100"/>
-      <c r="G82" s="100"/>
-      <c r="H82" s="101"/>
-      <c r="I82" s="101"/>
-      <c r="J82" s="101"/>
-      <c r="K82" s="101"/>
-      <c r="L82" s="101"/>
-      <c r="M82" s="61"/>
-      <c r="N82" s="117"/>
+      <c r="A82" s="206"/>
+      <c r="B82" s="206"/>
+      <c r="C82" s="207"/>
+      <c r="D82" s="207"/>
+      <c r="E82" s="208"/>
+      <c r="F82" s="209"/>
+      <c r="G82" s="209"/>
+      <c r="H82" s="210"/>
+      <c r="I82" s="210"/>
+      <c r="J82" s="210"/>
+      <c r="K82" s="210"/>
+      <c r="L82" s="210"/>
+      <c r="M82" s="211"/>
+      <c r="N82" s="212"/>
     </row>
     <row r="83" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="67"/>
-      <c r="B83" s="67"/>
-      <c r="C83" s="97"/>
-      <c r="D83" s="97"/>
-      <c r="E83" s="116"/>
-      <c r="F83" s="100"/>
-      <c r="G83" s="100"/>
-      <c r="H83" s="101"/>
-      <c r="I83" s="101"/>
-      <c r="J83" s="101"/>
-      <c r="K83" s="101"/>
-      <c r="L83" s="101"/>
-      <c r="M83" s="61"/>
-      <c r="N83" s="117"/>
+      <c r="A83" s="206"/>
+      <c r="B83" s="206"/>
+      <c r="C83" s="207"/>
+      <c r="D83" s="207"/>
+      <c r="E83" s="208"/>
+      <c r="F83" s="209"/>
+      <c r="G83" s="209"/>
+      <c r="H83" s="210"/>
+      <c r="I83" s="210"/>
+      <c r="J83" s="210"/>
+      <c r="K83" s="210"/>
+      <c r="L83" s="210"/>
+      <c r="M83" s="211"/>
+      <c r="N83" s="212"/>
     </row>
     <row r="84" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="67"/>
-      <c r="B84" s="67"/>
-      <c r="C84" s="68"/>
-      <c r="D84" s="68"/>
-      <c r="E84" s="69"/>
-      <c r="F84" s="100"/>
-      <c r="G84" s="100"/>
-      <c r="H84" s="101"/>
-      <c r="I84" s="101"/>
-      <c r="J84" s="101"/>
-      <c r="K84" s="101"/>
-      <c r="L84" s="101"/>
-      <c r="M84" s="61"/>
-      <c r="N84" s="96"/>
+      <c r="A84" s="206"/>
+      <c r="B84" s="206"/>
+      <c r="C84" s="213"/>
+      <c r="D84" s="213"/>
+      <c r="E84" s="214"/>
+      <c r="F84" s="209"/>
+      <c r="G84" s="209"/>
+      <c r="H84" s="210"/>
+      <c r="I84" s="210"/>
+      <c r="J84" s="210"/>
+      <c r="K84" s="210"/>
+      <c r="L84" s="210"/>
+      <c r="M84" s="211"/>
+      <c r="N84" s="213"/>
       <c r="O84" s="16"/>
     </row>
-    <row r="85" spans="1:15" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="53"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="54"/>
-      <c r="D85" s="54"/>
-      <c r="E85" s="55"/>
-      <c r="F85" s="56"/>
-      <c r="G85" s="57"/>
-      <c r="H85" s="57"/>
-      <c r="I85" s="57"/>
-      <c r="J85" s="57"/>
-      <c r="K85" s="57"/>
-      <c r="L85" s="57"/>
-      <c r="M85" s="57"/>
-      <c r="N85" s="58"/>
+    <row r="85" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="215"/>
+      <c r="B85" s="215"/>
+      <c r="C85" s="207"/>
+      <c r="D85" s="207"/>
+      <c r="E85" s="216"/>
+      <c r="F85" s="217"/>
+      <c r="G85" s="218"/>
+      <c r="H85" s="218"/>
+      <c r="I85" s="218"/>
+      <c r="J85" s="218"/>
+      <c r="K85" s="218"/>
+      <c r="L85" s="218"/>
+      <c r="M85" s="218"/>
+      <c r="N85" s="219"/>
     </row>
     <row r="86" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="13"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="48"/>
-      <c r="I86" s="48"/>
-      <c r="J86" s="48"/>
-      <c r="K86" s="48"/>
-      <c r="L86" s="48"/>
-      <c r="M86" s="48"/>
-      <c r="N86" s="6"/>
+      <c r="A86" s="215"/>
+      <c r="B86" s="215"/>
+      <c r="C86" s="207"/>
+      <c r="D86" s="207"/>
+      <c r="E86" s="216"/>
+      <c r="F86" s="217"/>
+      <c r="G86" s="217"/>
+      <c r="H86" s="218"/>
+      <c r="I86" s="218"/>
+      <c r="J86" s="218"/>
+      <c r="K86" s="218"/>
+      <c r="L86" s="218"/>
+      <c r="M86" s="218"/>
+      <c r="N86" s="219"/>
     </row>
     <row r="87" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="48"/>
-      <c r="I87" s="48"/>
-      <c r="J87" s="48"/>
-      <c r="K87" s="48"/>
-      <c r="L87" s="48"/>
-      <c r="M87" s="48"/>
-      <c r="N87" s="6"/>
+      <c r="A87" s="215"/>
+      <c r="B87" s="215"/>
+      <c r="C87" s="207"/>
+      <c r="D87" s="207"/>
+      <c r="E87" s="216"/>
+      <c r="F87" s="217"/>
+      <c r="G87" s="217"/>
+      <c r="H87" s="218"/>
+      <c r="I87" s="218"/>
+      <c r="J87" s="218"/>
+      <c r="K87" s="218"/>
+      <c r="L87" s="218"/>
+      <c r="M87" s="218"/>
+      <c r="N87" s="219"/>
     </row>
     <row r="88" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="13"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="48"/>
-      <c r="I88" s="48"/>
-      <c r="J88" s="48"/>
-      <c r="K88" s="48"/>
-      <c r="L88" s="48"/>
-      <c r="M88" s="48"/>
-      <c r="N88" s="6"/>
+      <c r="A88" s="215"/>
+      <c r="B88" s="215"/>
+      <c r="C88" s="207"/>
+      <c r="D88" s="207"/>
+      <c r="E88" s="216"/>
+      <c r="F88" s="217"/>
+      <c r="G88" s="217"/>
+      <c r="H88" s="218"/>
+      <c r="I88" s="218"/>
+      <c r="J88" s="218"/>
+      <c r="K88" s="218"/>
+      <c r="L88" s="218"/>
+      <c r="M88" s="218"/>
+      <c r="N88" s="219"/>
     </row>
     <row r="89" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="13"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="40"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="34"/>
-      <c r="K89" s="34"/>
-      <c r="L89" s="34"/>
-      <c r="M89" s="34"/>
-      <c r="N89" s="6"/>
+      <c r="A89" s="215"/>
+      <c r="B89" s="215"/>
+      <c r="C89" s="207"/>
+      <c r="D89" s="207"/>
+      <c r="E89" s="220"/>
+      <c r="F89" s="217"/>
+      <c r="G89" s="217"/>
+      <c r="H89" s="221"/>
+      <c r="I89" s="221"/>
+      <c r="J89" s="221"/>
+      <c r="K89" s="221"/>
+      <c r="L89" s="221"/>
+      <c r="M89" s="221"/>
+      <c r="N89" s="219"/>
     </row>
     <row r="90" spans="1:15" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="13"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="175"/>
-      <c r="D90" s="81"/>
-      <c r="E90" s="43"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="34"/>
-      <c r="J90" s="34"/>
-      <c r="K90" s="34"/>
-      <c r="L90" s="6"/>
+      <c r="A90" s="215"/>
+      <c r="B90" s="215"/>
+      <c r="C90" s="222"/>
+      <c r="D90" s="223"/>
+      <c r="E90" s="224"/>
+      <c r="F90" s="225"/>
+      <c r="G90" s="225"/>
+      <c r="H90" s="221"/>
+      <c r="I90" s="221"/>
+      <c r="J90" s="221"/>
+      <c r="K90" s="221"/>
+      <c r="L90" s="219"/>
+      <c r="M90" s="226"/>
+      <c r="N90" s="226"/>
     </row>
     <row r="91" spans="1:15" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="13"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="175"/>
-      <c r="D91" s="82"/>
-      <c r="E91" s="43"/>
-      <c r="F91" s="34"/>
-      <c r="G91" s="34"/>
-      <c r="H91" s="34"/>
-      <c r="I91" s="34"/>
-      <c r="J91" s="34"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="6"/>
+      <c r="A91" s="215"/>
+      <c r="B91" s="215"/>
+      <c r="C91" s="222"/>
+      <c r="D91" s="227"/>
+      <c r="E91" s="224"/>
+      <c r="F91" s="221"/>
+      <c r="G91" s="221"/>
+      <c r="H91" s="221"/>
+      <c r="I91" s="221"/>
+      <c r="J91" s="221"/>
+      <c r="K91" s="217"/>
+      <c r="L91" s="219"/>
+      <c r="M91" s="226"/>
+      <c r="N91" s="226"/>
     </row>
     <row r="92" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="13"/>
@@ -38800,11 +38864,11 @@
     <row r="93" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
-      <c r="C93" s="202"/>
-      <c r="D93" s="202"/>
-      <c r="E93" s="203"/>
-      <c r="F93" s="203"/>
-      <c r="G93" s="203"/>
+      <c r="C93" s="198"/>
+      <c r="D93" s="198"/>
+      <c r="E93" s="199"/>
+      <c r="F93" s="199"/>
+      <c r="G93" s="199"/>
       <c r="H93" s="34"/>
       <c r="I93" s="110"/>
       <c r="J93" s="34"/>
@@ -38819,7 +38883,7 @@
       <c r="B94" s="13"/>
       <c r="C94" s="63"/>
       <c r="D94" s="63"/>
-      <c r="E94" s="210"/>
+      <c r="E94" s="196"/>
       <c r="F94" s="62"/>
       <c r="G94" s="114"/>
       <c r="H94" s="114"/>
@@ -38835,11 +38899,11 @@
       <c r="B95" s="13"/>
       <c r="C95" s="64"/>
       <c r="D95" s="5"/>
-      <c r="E95" s="202"/>
-      <c r="F95" s="202"/>
-      <c r="G95" s="202"/>
-      <c r="H95" s="203"/>
-      <c r="I95" s="203"/>
+      <c r="E95" s="198"/>
+      <c r="F95" s="198"/>
+      <c r="G95" s="198"/>
+      <c r="H95" s="199"/>
+      <c r="I95" s="199"/>
     </row>
     <row r="96" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="13"/>
@@ -39867,9 +39931,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C7:N7"/>
     <mergeCell ref="C93:G93"/>
     <mergeCell ref="E95:I95"/>
+    <mergeCell ref="A7:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>

--- a/media/kuzets_download_fiz.xlsx
+++ b/media/kuzets_download_fiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4D2166-0546-8B40-B0C8-36942670722F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4595F4C5-B989-EF49-8133-C0DE849A36C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="315">
   <si>
     <t>№</t>
   </si>
@@ -989,9 +989,6 @@
     <t>Примечания</t>
   </si>
   <si>
-    <t>АКТ сверки по физическим лицам за май 2024г.</t>
-  </si>
-  <si>
     <t>Тип объекта</t>
   </si>
   <si>
@@ -1480,7 +1477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2040,6 +2037,39 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2066,81 +2096,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2587,20 +2542,20 @@
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="197" t="s">
+      <c r="D7" s="208" t="s">
         <v>284</v>
       </c>
-      <c r="E7" s="197"/>
-      <c r="F7" s="197"/>
-      <c r="G7" s="197"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="197"/>
-      <c r="L7" s="197"/>
-      <c r="M7" s="197"/>
-      <c r="N7" s="197"/>
-      <c r="O7" s="197"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="208"/>
+      <c r="I7" s="208"/>
+      <c r="J7" s="208"/>
+      <c r="K7" s="208"/>
+      <c r="L7" s="208"/>
+      <c r="M7" s="208"/>
+      <c r="N7" s="208"/>
+      <c r="O7" s="208"/>
       <c r="P7" s="35"/>
     </row>
     <row r="8" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6609,13 +6564,13 @@
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
-      <c r="D94" s="198" t="s">
+      <c r="D94" s="209" t="s">
         <v>285</v>
       </c>
-      <c r="E94" s="198"/>
-      <c r="F94" s="199"/>
-      <c r="G94" s="199"/>
-      <c r="H94" s="199"/>
+      <c r="E94" s="209"/>
+      <c r="F94" s="210"/>
+      <c r="G94" s="210"/>
+      <c r="H94" s="210"/>
       <c r="I94" s="34"/>
       <c r="J94" s="110">
         <f>E91+E92</f>
@@ -6657,13 +6612,13 @@
       <c r="E96" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F96" s="198" t="s">
+      <c r="F96" s="209" t="s">
         <v>32</v>
       </c>
-      <c r="G96" s="198"/>
-      <c r="H96" s="198"/>
-      <c r="I96" s="199"/>
-      <c r="J96" s="199"/>
+      <c r="G96" s="209"/>
+      <c r="H96" s="209"/>
+      <c r="I96" s="210"/>
+      <c r="J96" s="210"/>
     </row>
     <row r="97" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="13"/>
@@ -7913,20 +7868,20 @@
       <c r="A7" s="163"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
-      <c r="D7" s="200" t="s">
+      <c r="D7" s="211" t="s">
         <v>297</v>
       </c>
-      <c r="E7" s="200"/>
-      <c r="F7" s="200"/>
-      <c r="G7" s="200"/>
-      <c r="H7" s="200"/>
-      <c r="I7" s="200"/>
-      <c r="J7" s="200"/>
-      <c r="K7" s="200"/>
-      <c r="L7" s="200"/>
-      <c r="M7" s="200"/>
-      <c r="N7" s="200"/>
-      <c r="O7" s="200"/>
+      <c r="E7" s="211"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="211"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="22"/>
     </row>
@@ -7935,7 +7890,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="118" customFormat="1" ht="109" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" s="118" customFormat="1" ht="106" x14ac:dyDescent="0.15">
       <c r="A9" s="128" t="s">
         <v>301</v>
       </c>
@@ -7973,7 +7928,7 @@
         <v>11</v>
       </c>
       <c r="M9" s="132" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N9" s="132" t="s">
         <v>307</v>
@@ -7988,13 +7943,13 @@
         <v>310</v>
       </c>
       <c r="R9" s="118" t="s">
+        <v>311</v>
+      </c>
+      <c r="S9" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="S9" s="41" t="s">
+      <c r="T9" s="41" t="s">
         <v>313</v>
-      </c>
-      <c r="T9" s="41" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="138" customFormat="1" ht="24" x14ac:dyDescent="0.15">
@@ -8338,8 +8293,8 @@
         <v>10960</v>
       </c>
       <c r="Q15" s="137"/>
-      <c r="R15" s="201"/>
-      <c r="S15" s="202"/>
+      <c r="R15" s="212"/>
+      <c r="S15" s="213"/>
     </row>
     <row r="16" spans="1:20" s="138" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A16" s="139">
@@ -9141,18 +9096,18 @@
       <c r="A36" s="118"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
-      <c r="D36" s="203" t="s">
+      <c r="D36" s="214" t="s">
         <v>296</v>
       </c>
-      <c r="E36" s="203"/>
-      <c r="F36" s="203"/>
-      <c r="G36" s="203"/>
-      <c r="H36" s="203"/>
-      <c r="I36" s="204">
+      <c r="E36" s="214"/>
+      <c r="F36" s="214"/>
+      <c r="G36" s="214"/>
+      <c r="H36" s="214"/>
+      <c r="I36" s="215">
         <f>E34+E35</f>
         <v>157696</v>
       </c>
-      <c r="J36" s="204"/>
+      <c r="J36" s="215"/>
       <c r="M36" s="122"/>
       <c r="N36" s="122"/>
       <c r="O36" s="122"/>
@@ -9165,14 +9120,14 @@
         <v>21</v>
       </c>
       <c r="E37" s="161"/>
-      <c r="G37" s="205"/>
-      <c r="H37" s="205"/>
-      <c r="I37" s="205"/>
-      <c r="J37" s="205"/>
-      <c r="K37" s="205"/>
-      <c r="L37" s="205"/>
-      <c r="M37" s="205"/>
-      <c r="N37" s="205"/>
+      <c r="G37" s="216"/>
+      <c r="H37" s="216"/>
+      <c r="I37" s="216"/>
+      <c r="J37" s="216"/>
+      <c r="K37" s="216"/>
+      <c r="L37" s="216"/>
+      <c r="M37" s="216"/>
+      <c r="N37" s="216"/>
       <c r="O37" s="118"/>
       <c r="P37" s="122"/>
       <c r="Q37" s="40"/>
@@ -10659,20 +10614,20 @@
       <c r="A7" s="163"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
-      <c r="D7" s="200" t="s">
+      <c r="D7" s="211" t="s">
         <v>286</v>
       </c>
-      <c r="E7" s="200"/>
-      <c r="F7" s="200"/>
-      <c r="G7" s="200"/>
-      <c r="H7" s="200"/>
-      <c r="I7" s="200"/>
-      <c r="J7" s="200"/>
-      <c r="K7" s="200"/>
-      <c r="L7" s="200"/>
-      <c r="M7" s="200"/>
-      <c r="N7" s="200"/>
-      <c r="O7" s="200"/>
+      <c r="E7" s="211"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="211"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="22"/>
     </row>
@@ -11076,8 +11031,8 @@
         <v>10960</v>
       </c>
       <c r="Q15" s="137"/>
-      <c r="R15" s="201"/>
-      <c r="S15" s="202"/>
+      <c r="R15" s="212"/>
+      <c r="S15" s="213"/>
     </row>
     <row r="16" spans="1:19" s="138" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A16" s="139">
@@ -11841,18 +11796,18 @@
       <c r="A36" s="118"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
-      <c r="D36" s="203" t="s">
+      <c r="D36" s="214" t="s">
         <v>285</v>
       </c>
-      <c r="E36" s="203"/>
-      <c r="F36" s="203"/>
-      <c r="G36" s="203"/>
-      <c r="H36" s="203"/>
-      <c r="I36" s="204">
+      <c r="E36" s="214"/>
+      <c r="F36" s="214"/>
+      <c r="G36" s="214"/>
+      <c r="H36" s="214"/>
+      <c r="I36" s="215">
         <f>E34+E35</f>
         <v>142820</v>
       </c>
-      <c r="J36" s="204"/>
+      <c r="J36" s="215"/>
       <c r="M36" s="122"/>
       <c r="N36" s="122"/>
       <c r="O36" s="122"/>
@@ -11865,14 +11820,14 @@
         <v>21</v>
       </c>
       <c r="E37" s="161"/>
-      <c r="G37" s="205"/>
-      <c r="H37" s="205"/>
-      <c r="I37" s="205"/>
-      <c r="J37" s="205"/>
-      <c r="K37" s="205"/>
-      <c r="L37" s="205"/>
-      <c r="M37" s="205"/>
-      <c r="N37" s="205"/>
+      <c r="G37" s="216"/>
+      <c r="H37" s="216"/>
+      <c r="I37" s="216"/>
+      <c r="J37" s="216"/>
+      <c r="K37" s="216"/>
+      <c r="L37" s="216"/>
+      <c r="M37" s="216"/>
+      <c r="N37" s="216"/>
       <c r="O37" s="118"/>
       <c r="P37" s="122"/>
       <c r="Q37" s="40"/>
@@ -13355,20 +13310,20 @@
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="197" t="s">
+      <c r="D7" s="208" t="s">
         <v>289</v>
       </c>
-      <c r="E7" s="197"/>
-      <c r="F7" s="197"/>
-      <c r="G7" s="197"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="197"/>
-      <c r="L7" s="197"/>
-      <c r="M7" s="197"/>
-      <c r="N7" s="197"/>
-      <c r="O7" s="197"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="208"/>
+      <c r="I7" s="208"/>
+      <c r="J7" s="208"/>
+      <c r="K7" s="208"/>
+      <c r="L7" s="208"/>
+      <c r="M7" s="208"/>
+      <c r="N7" s="208"/>
+      <c r="O7" s="208"/>
       <c r="P7" s="35"/>
     </row>
     <row r="8" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -17377,13 +17332,13 @@
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
-      <c r="D94" s="198" t="s">
+      <c r="D94" s="209" t="s">
         <v>288</v>
       </c>
-      <c r="E94" s="198"/>
-      <c r="F94" s="199"/>
-      <c r="G94" s="199"/>
-      <c r="H94" s="199"/>
+      <c r="E94" s="209"/>
+      <c r="F94" s="210"/>
+      <c r="G94" s="210"/>
+      <c r="H94" s="210"/>
       <c r="I94" s="34"/>
       <c r="J94" s="110">
         <f>E91+E92</f>
@@ -17425,13 +17380,13 @@
       <c r="E96" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F96" s="198" t="s">
+      <c r="F96" s="209" t="s">
         <v>32</v>
       </c>
-      <c r="G96" s="198"/>
-      <c r="H96" s="198"/>
-      <c r="I96" s="199"/>
-      <c r="J96" s="199"/>
+      <c r="G96" s="209"/>
+      <c r="H96" s="209"/>
+      <c r="I96" s="210"/>
+      <c r="J96" s="210"/>
     </row>
     <row r="97" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="13"/>
@@ -18679,20 +18634,20 @@
       <c r="A7" s="163"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
-      <c r="D7" s="200" t="s">
+      <c r="D7" s="211" t="s">
         <v>287</v>
       </c>
-      <c r="E7" s="200"/>
-      <c r="F7" s="200"/>
-      <c r="G7" s="200"/>
-      <c r="H7" s="200"/>
-      <c r="I7" s="200"/>
-      <c r="J7" s="200"/>
-      <c r="K7" s="200"/>
-      <c r="L7" s="200"/>
-      <c r="M7" s="200"/>
-      <c r="N7" s="200"/>
-      <c r="O7" s="200"/>
+      <c r="E7" s="211"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="211"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="22"/>
     </row>
@@ -19096,8 +19051,8 @@
         <v>10960</v>
       </c>
       <c r="Q15" s="137"/>
-      <c r="R15" s="201"/>
-      <c r="S15" s="202"/>
+      <c r="R15" s="212"/>
+      <c r="S15" s="213"/>
     </row>
     <row r="16" spans="1:19" s="138" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A16" s="139">
@@ -19861,18 +19816,18 @@
       <c r="A36" s="118"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
-      <c r="D36" s="203" t="s">
+      <c r="D36" s="214" t="s">
         <v>288</v>
       </c>
-      <c r="E36" s="203"/>
-      <c r="F36" s="203"/>
-      <c r="G36" s="203"/>
-      <c r="H36" s="203"/>
-      <c r="I36" s="204">
+      <c r="E36" s="214"/>
+      <c r="F36" s="214"/>
+      <c r="G36" s="214"/>
+      <c r="H36" s="214"/>
+      <c r="I36" s="215">
         <f>E34+E35</f>
         <v>142820</v>
       </c>
-      <c r="J36" s="204"/>
+      <c r="J36" s="215"/>
       <c r="M36" s="122"/>
       <c r="N36" s="122"/>
       <c r="O36" s="122"/>
@@ -19885,14 +19840,14 @@
         <v>21</v>
       </c>
       <c r="E37" s="161"/>
-      <c r="G37" s="205"/>
-      <c r="H37" s="205"/>
-      <c r="I37" s="205"/>
-      <c r="J37" s="205"/>
-      <c r="K37" s="205"/>
-      <c r="L37" s="205"/>
-      <c r="M37" s="205"/>
-      <c r="N37" s="205"/>
+      <c r="G37" s="216"/>
+      <c r="H37" s="216"/>
+      <c r="I37" s="216"/>
+      <c r="J37" s="216"/>
+      <c r="K37" s="216"/>
+      <c r="L37" s="216"/>
+      <c r="M37" s="216"/>
+      <c r="N37" s="216"/>
       <c r="O37" s="118"/>
       <c r="P37" s="122"/>
       <c r="Q37" s="40"/>
@@ -21375,20 +21330,20 @@
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="197" t="s">
+      <c r="D7" s="208" t="s">
         <v>294</v>
       </c>
-      <c r="E7" s="197"/>
-      <c r="F7" s="197"/>
-      <c r="G7" s="197"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="197"/>
-      <c r="L7" s="197"/>
-      <c r="M7" s="197"/>
-      <c r="N7" s="197"/>
-      <c r="O7" s="197"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="208"/>
+      <c r="I7" s="208"/>
+      <c r="J7" s="208"/>
+      <c r="K7" s="208"/>
+      <c r="L7" s="208"/>
+      <c r="M7" s="208"/>
+      <c r="N7" s="208"/>
+      <c r="O7" s="208"/>
       <c r="P7" s="35"/>
     </row>
     <row r="8" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -25398,13 +25353,13 @@
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
-      <c r="D94" s="198" t="s">
+      <c r="D94" s="209" t="s">
         <v>293</v>
       </c>
-      <c r="E94" s="198"/>
-      <c r="F94" s="199"/>
-      <c r="G94" s="199"/>
-      <c r="H94" s="199"/>
+      <c r="E94" s="209"/>
+      <c r="F94" s="210"/>
+      <c r="G94" s="210"/>
+      <c r="H94" s="210"/>
       <c r="I94" s="34"/>
       <c r="J94" s="110">
         <f>E91+E92</f>
@@ -25446,13 +25401,13 @@
       <c r="E96" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F96" s="198" t="s">
+      <c r="F96" s="209" t="s">
         <v>32</v>
       </c>
-      <c r="G96" s="198"/>
-      <c r="H96" s="198"/>
-      <c r="I96" s="199"/>
-      <c r="J96" s="199"/>
+      <c r="G96" s="209"/>
+      <c r="H96" s="209"/>
+      <c r="I96" s="210"/>
+      <c r="J96" s="210"/>
     </row>
     <row r="97" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="13"/>
@@ -26700,20 +26655,20 @@
       <c r="A7" s="163"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
-      <c r="D7" s="200" t="s">
+      <c r="D7" s="211" t="s">
         <v>292</v>
       </c>
-      <c r="E7" s="200"/>
-      <c r="F7" s="200"/>
-      <c r="G7" s="200"/>
-      <c r="H7" s="200"/>
-      <c r="I7" s="200"/>
-      <c r="J7" s="200"/>
-      <c r="K7" s="200"/>
-      <c r="L7" s="200"/>
-      <c r="M7" s="200"/>
-      <c r="N7" s="200"/>
-      <c r="O7" s="200"/>
+      <c r="E7" s="211"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="211"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="22"/>
     </row>
@@ -27177,8 +27132,8 @@
         <v>10960</v>
       </c>
       <c r="Q16" s="137"/>
-      <c r="R16" s="201"/>
-      <c r="S16" s="202"/>
+      <c r="R16" s="212"/>
+      <c r="S16" s="213"/>
     </row>
     <row r="17" spans="1:18" s="138" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A17" s="139">
@@ -27942,18 +27897,18 @@
       <c r="A37" s="118"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
-      <c r="D37" s="203" t="s">
+      <c r="D37" s="214" t="s">
         <v>293</v>
       </c>
-      <c r="E37" s="203"/>
-      <c r="F37" s="203"/>
-      <c r="G37" s="203"/>
-      <c r="H37" s="203"/>
-      <c r="I37" s="204">
+      <c r="E37" s="214"/>
+      <c r="F37" s="214"/>
+      <c r="G37" s="214"/>
+      <c r="H37" s="214"/>
+      <c r="I37" s="215">
         <f>E35+E36</f>
         <v>143199</v>
       </c>
-      <c r="J37" s="204"/>
+      <c r="J37" s="215"/>
       <c r="M37" s="122"/>
       <c r="N37" s="122"/>
       <c r="O37" s="122"/>
@@ -27966,14 +27921,14 @@
         <v>21</v>
       </c>
       <c r="E38" s="161"/>
-      <c r="G38" s="205"/>
-      <c r="H38" s="205"/>
-      <c r="I38" s="205"/>
-      <c r="J38" s="205"/>
-      <c r="K38" s="205"/>
-      <c r="L38" s="205"/>
-      <c r="M38" s="205"/>
-      <c r="N38" s="205"/>
+      <c r="G38" s="216"/>
+      <c r="H38" s="216"/>
+      <c r="I38" s="216"/>
+      <c r="J38" s="216"/>
+      <c r="K38" s="216"/>
+      <c r="L38" s="216"/>
+      <c r="M38" s="216"/>
+      <c r="N38" s="216"/>
       <c r="O38" s="118"/>
       <c r="P38" s="122"/>
       <c r="Q38" s="40"/>
@@ -29456,20 +29411,20 @@
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="197" t="s">
+      <c r="D7" s="208" t="s">
         <v>295</v>
       </c>
-      <c r="E7" s="197"/>
-      <c r="F7" s="197"/>
-      <c r="G7" s="197"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="197"/>
-      <c r="L7" s="197"/>
-      <c r="M7" s="197"/>
-      <c r="N7" s="197"/>
-      <c r="O7" s="197"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="208"/>
+      <c r="I7" s="208"/>
+      <c r="J7" s="208"/>
+      <c r="K7" s="208"/>
+      <c r="L7" s="208"/>
+      <c r="M7" s="208"/>
+      <c r="N7" s="208"/>
+      <c r="O7" s="208"/>
       <c r="P7" s="35"/>
     </row>
     <row r="8" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -33427,13 +33382,13 @@
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
-      <c r="D93" s="198" t="s">
+      <c r="D93" s="209" t="s">
         <v>296</v>
       </c>
-      <c r="E93" s="198"/>
-      <c r="F93" s="199"/>
-      <c r="G93" s="199"/>
-      <c r="H93" s="199"/>
+      <c r="E93" s="209"/>
+      <c r="F93" s="210"/>
+      <c r="G93" s="210"/>
+      <c r="H93" s="210"/>
       <c r="I93" s="34"/>
       <c r="J93" s="110">
         <f>E90+E91</f>
@@ -33475,13 +33430,13 @@
       <c r="E95" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F95" s="198" t="s">
+      <c r="F95" s="209" t="s">
         <v>32</v>
       </c>
-      <c r="G95" s="198"/>
-      <c r="H95" s="198"/>
-      <c r="I95" s="199"/>
-      <c r="J95" s="199"/>
+      <c r="G95" s="209"/>
+      <c r="H95" s="209"/>
+      <c r="I95" s="210"/>
+      <c r="J95" s="210"/>
     </row>
     <row r="96" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="13"/>
@@ -34728,20 +34683,20 @@
       <c r="A7" s="163"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
-      <c r="D7" s="200" t="s">
+      <c r="D7" s="211" t="s">
         <v>297</v>
       </c>
-      <c r="E7" s="200"/>
-      <c r="F7" s="200"/>
-      <c r="G7" s="200"/>
-      <c r="H7" s="200"/>
-      <c r="I7" s="200"/>
-      <c r="J7" s="200"/>
-      <c r="K7" s="200"/>
-      <c r="L7" s="200"/>
-      <c r="M7" s="200"/>
-      <c r="N7" s="200"/>
-      <c r="O7" s="200"/>
+      <c r="E7" s="211"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="211"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="22"/>
     </row>
@@ -34750,7 +34705,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="118" customFormat="1" ht="111" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" s="118" customFormat="1" ht="107" x14ac:dyDescent="0.15">
       <c r="A9" s="128" t="s">
         <v>301</v>
       </c>
@@ -35147,8 +35102,8 @@
         <v>10960</v>
       </c>
       <c r="Q15" s="137"/>
-      <c r="R15" s="201"/>
-      <c r="S15" s="202"/>
+      <c r="R15" s="212"/>
+      <c r="S15" s="213"/>
     </row>
     <row r="16" spans="1:19" s="138" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A16" s="139">
@@ -35950,18 +35905,18 @@
       <c r="A36" s="118"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
-      <c r="D36" s="203" t="s">
+      <c r="D36" s="214" t="s">
         <v>296</v>
       </c>
-      <c r="E36" s="203"/>
-      <c r="F36" s="203"/>
-      <c r="G36" s="203"/>
-      <c r="H36" s="203"/>
-      <c r="I36" s="204">
+      <c r="E36" s="214"/>
+      <c r="F36" s="214"/>
+      <c r="G36" s="214"/>
+      <c r="H36" s="214"/>
+      <c r="I36" s="215">
         <f>E34+E35</f>
         <v>151120</v>
       </c>
-      <c r="J36" s="204"/>
+      <c r="J36" s="215"/>
       <c r="M36" s="122"/>
       <c r="N36" s="122"/>
       <c r="O36" s="122"/>
@@ -35974,14 +35929,14 @@
         <v>21</v>
       </c>
       <c r="E37" s="161"/>
-      <c r="G37" s="205"/>
-      <c r="H37" s="205"/>
-      <c r="I37" s="205"/>
-      <c r="J37" s="205"/>
-      <c r="K37" s="205"/>
-      <c r="L37" s="205"/>
-      <c r="M37" s="205"/>
-      <c r="N37" s="205"/>
+      <c r="G37" s="216"/>
+      <c r="H37" s="216"/>
+      <c r="I37" s="216"/>
+      <c r="J37" s="216"/>
+      <c r="K37" s="216"/>
+      <c r="L37" s="216"/>
+      <c r="M37" s="216"/>
+      <c r="N37" s="216"/>
       <c r="O37" s="118"/>
       <c r="P37" s="122"/>
       <c r="Q37" s="40"/>
@@ -37325,8 +37280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T159"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A75" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37456,29 +37411,23 @@
       <c r="N6" s="19"/>
     </row>
     <row r="7" spans="1:20" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A7" s="197" t="s">
-        <v>311</v>
-      </c>
-      <c r="B7" s="197"/>
-      <c r="C7" s="197"/>
-      <c r="D7" s="197"/>
-      <c r="E7" s="197"/>
-      <c r="F7" s="197"/>
-      <c r="G7" s="197"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="197"/>
-      <c r="L7" s="197"/>
-      <c r="M7" s="197"/>
-      <c r="N7" s="197"/>
+      <c r="A7" s="208"/>
+      <c r="B7" s="208"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="208"/>
+      <c r="I7" s="208"/>
+      <c r="J7" s="208"/>
+      <c r="K7" s="208"/>
+      <c r="L7" s="208"/>
+      <c r="M7" s="208"/>
+      <c r="N7" s="208"/>
       <c r="O7" s="35"/>
     </row>
-    <row r="8" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M8" s="36">
-        <v>31</v>
-      </c>
-    </row>
+    <row r="8" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:20" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.15">
       <c r="A9" s="129" t="s">
         <v>4</v>
@@ -37505,7 +37454,7 @@
         <v>11</v>
       </c>
       <c r="I9" s="79" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J9" s="132" t="s">
         <v>307</v>
@@ -37639,7 +37588,7 @@
       <c r="K16" s="61"/>
       <c r="L16" s="61"/>
       <c r="M16" s="61"/>
-      <c r="N16" s="229"/>
+      <c r="N16" s="206"/>
     </row>
     <row r="17" spans="1:14" s="192" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="50"/>
@@ -37655,7 +37604,7 @@
       <c r="K17" s="61"/>
       <c r="L17" s="61"/>
       <c r="M17" s="61"/>
-      <c r="N17" s="230"/>
+      <c r="N17" s="207"/>
     </row>
     <row r="18" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="50"/>
@@ -37735,7 +37684,7 @@
       <c r="K22" s="61"/>
       <c r="L22" s="61"/>
       <c r="M22" s="61"/>
-      <c r="N22" s="230"/>
+      <c r="N22" s="207"/>
     </row>
     <row r="23" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="50"/>
@@ -38650,200 +38599,196 @@
       <c r="K79" s="61"/>
       <c r="L79" s="61"/>
       <c r="M79" s="61"/>
-      <c r="N79" s="228"/>
+      <c r="N79" s="205"/>
     </row>
     <row r="80" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="206"/>
-      <c r="B80" s="206"/>
-      <c r="C80" s="207"/>
-      <c r="D80" s="207"/>
-      <c r="E80" s="208"/>
-      <c r="F80" s="209"/>
-      <c r="G80" s="209"/>
-      <c r="H80" s="210"/>
-      <c r="I80" s="210"/>
-      <c r="J80" s="211"/>
-      <c r="K80" s="211"/>
-      <c r="L80" s="210"/>
-      <c r="M80" s="211"/>
-      <c r="N80" s="212"/>
+      <c r="A80" s="198"/>
+      <c r="B80" s="198"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="199"/>
+      <c r="F80" s="197"/>
+      <c r="G80" s="197"/>
+      <c r="H80" s="158"/>
+      <c r="I80" s="158"/>
+      <c r="J80" s="200"/>
+      <c r="K80" s="200"/>
+      <c r="L80" s="158"/>
+      <c r="M80" s="200"/>
+      <c r="N80" s="12"/>
     </row>
     <row r="81" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="206"/>
-      <c r="B81" s="206"/>
-      <c r="C81" s="207"/>
-      <c r="D81" s="207"/>
-      <c r="E81" s="208"/>
-      <c r="F81" s="209"/>
-      <c r="G81" s="209"/>
-      <c r="H81" s="210"/>
-      <c r="I81" s="210"/>
-      <c r="J81" s="211"/>
-      <c r="K81" s="211"/>
-      <c r="L81" s="210"/>
-      <c r="M81" s="211"/>
-      <c r="N81" s="212"/>
+      <c r="A81" s="198"/>
+      <c r="B81" s="198"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="199"/>
+      <c r="F81" s="197"/>
+      <c r="G81" s="197"/>
+      <c r="H81" s="158"/>
+      <c r="I81" s="158"/>
+      <c r="J81" s="200"/>
+      <c r="K81" s="200"/>
+      <c r="L81" s="158"/>
+      <c r="M81" s="200"/>
+      <c r="N81" s="12"/>
     </row>
     <row r="82" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="206"/>
-      <c r="B82" s="206"/>
-      <c r="C82" s="207"/>
-      <c r="D82" s="207"/>
-      <c r="E82" s="208"/>
-      <c r="F82" s="209"/>
-      <c r="G82" s="209"/>
-      <c r="H82" s="210"/>
-      <c r="I82" s="210"/>
-      <c r="J82" s="210"/>
-      <c r="K82" s="210"/>
-      <c r="L82" s="210"/>
-      <c r="M82" s="211"/>
-      <c r="N82" s="212"/>
+      <c r="A82" s="198"/>
+      <c r="B82" s="198"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="199"/>
+      <c r="F82" s="197"/>
+      <c r="G82" s="197"/>
+      <c r="H82" s="158"/>
+      <c r="I82" s="158"/>
+      <c r="J82" s="158"/>
+      <c r="K82" s="158"/>
+      <c r="L82" s="158"/>
+      <c r="M82" s="200"/>
+      <c r="N82" s="12"/>
     </row>
     <row r="83" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="206"/>
-      <c r="B83" s="206"/>
-      <c r="C83" s="207"/>
-      <c r="D83" s="207"/>
-      <c r="E83" s="208"/>
-      <c r="F83" s="209"/>
-      <c r="G83" s="209"/>
-      <c r="H83" s="210"/>
-      <c r="I83" s="210"/>
-      <c r="J83" s="210"/>
-      <c r="K83" s="210"/>
-      <c r="L83" s="210"/>
-      <c r="M83" s="211"/>
-      <c r="N83" s="212"/>
+      <c r="A83" s="198"/>
+      <c r="B83" s="198"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="199"/>
+      <c r="F83" s="197"/>
+      <c r="G83" s="197"/>
+      <c r="H83" s="158"/>
+      <c r="I83" s="158"/>
+      <c r="J83" s="158"/>
+      <c r="K83" s="158"/>
+      <c r="L83" s="158"/>
+      <c r="M83" s="200"/>
+      <c r="N83" s="12"/>
     </row>
     <row r="84" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="206"/>
-      <c r="B84" s="206"/>
-      <c r="C84" s="213"/>
-      <c r="D84" s="213"/>
-      <c r="E84" s="214"/>
-      <c r="F84" s="209"/>
-      <c r="G84" s="209"/>
-      <c r="H84" s="210"/>
-      <c r="I84" s="210"/>
-      <c r="J84" s="210"/>
-      <c r="K84" s="210"/>
-      <c r="L84" s="210"/>
-      <c r="M84" s="211"/>
-      <c r="N84" s="213"/>
+      <c r="A84" s="198"/>
+      <c r="B84" s="198"/>
+      <c r="C84" s="201"/>
+      <c r="D84" s="201"/>
+      <c r="E84" s="202"/>
+      <c r="F84" s="197"/>
+      <c r="G84" s="197"/>
+      <c r="H84" s="158"/>
+      <c r="I84" s="158"/>
+      <c r="J84" s="158"/>
+      <c r="K84" s="158"/>
+      <c r="L84" s="158"/>
+      <c r="M84" s="200"/>
+      <c r="N84" s="201"/>
       <c r="O84" s="16"/>
     </row>
     <row r="85" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="215"/>
-      <c r="B85" s="215"/>
-      <c r="C85" s="207"/>
-      <c r="D85" s="207"/>
-      <c r="E85" s="216"/>
-      <c r="F85" s="217"/>
-      <c r="G85" s="218"/>
-      <c r="H85" s="218"/>
-      <c r="I85" s="218"/>
-      <c r="J85" s="218"/>
-      <c r="K85" s="218"/>
-      <c r="L85" s="218"/>
-      <c r="M85" s="218"/>
-      <c r="N85" s="219"/>
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="48"/>
+      <c r="J85" s="48"/>
+      <c r="K85" s="48"/>
+      <c r="L85" s="48"/>
+      <c r="M85" s="48"/>
+      <c r="N85" s="6"/>
     </row>
     <row r="86" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="215"/>
-      <c r="B86" s="215"/>
-      <c r="C86" s="207"/>
-      <c r="D86" s="207"/>
-      <c r="E86" s="216"/>
-      <c r="F86" s="217"/>
-      <c r="G86" s="217"/>
-      <c r="H86" s="218"/>
-      <c r="I86" s="218"/>
-      <c r="J86" s="218"/>
-      <c r="K86" s="218"/>
-      <c r="L86" s="218"/>
-      <c r="M86" s="218"/>
-      <c r="N86" s="219"/>
+      <c r="A86" s="13"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="48"/>
+      <c r="I86" s="48"/>
+      <c r="J86" s="48"/>
+      <c r="K86" s="48"/>
+      <c r="L86" s="48"/>
+      <c r="M86" s="48"/>
+      <c r="N86" s="6"/>
     </row>
     <row r="87" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="215"/>
-      <c r="B87" s="215"/>
-      <c r="C87" s="207"/>
-      <c r="D87" s="207"/>
-      <c r="E87" s="216"/>
-      <c r="F87" s="217"/>
-      <c r="G87" s="217"/>
-      <c r="H87" s="218"/>
-      <c r="I87" s="218"/>
-      <c r="J87" s="218"/>
-      <c r="K87" s="218"/>
-      <c r="L87" s="218"/>
-      <c r="M87" s="218"/>
-      <c r="N87" s="219"/>
+      <c r="A87" s="13"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="48"/>
+      <c r="J87" s="48"/>
+      <c r="K87" s="48"/>
+      <c r="L87" s="48"/>
+      <c r="M87" s="48"/>
+      <c r="N87" s="6"/>
     </row>
     <row r="88" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="215"/>
-      <c r="B88" s="215"/>
-      <c r="C88" s="207"/>
-      <c r="D88" s="207"/>
-      <c r="E88" s="216"/>
-      <c r="F88" s="217"/>
-      <c r="G88" s="217"/>
-      <c r="H88" s="218"/>
-      <c r="I88" s="218"/>
-      <c r="J88" s="218"/>
-      <c r="K88" s="218"/>
-      <c r="L88" s="218"/>
-      <c r="M88" s="218"/>
-      <c r="N88" s="219"/>
+      <c r="A88" s="13"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="48"/>
+      <c r="K88" s="48"/>
+      <c r="L88" s="48"/>
+      <c r="M88" s="48"/>
+      <c r="N88" s="6"/>
     </row>
     <row r="89" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="215"/>
-      <c r="B89" s="215"/>
-      <c r="C89" s="207"/>
-      <c r="D89" s="207"/>
-      <c r="E89" s="220"/>
-      <c r="F89" s="217"/>
-      <c r="G89" s="217"/>
-      <c r="H89" s="221"/>
-      <c r="I89" s="221"/>
-      <c r="J89" s="221"/>
-      <c r="K89" s="221"/>
-      <c r="L89" s="221"/>
-      <c r="M89" s="221"/>
-      <c r="N89" s="219"/>
+      <c r="A89" s="13"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="34"/>
+      <c r="K89" s="34"/>
+      <c r="L89" s="34"/>
+      <c r="M89" s="34"/>
+      <c r="N89" s="6"/>
     </row>
     <row r="90" spans="1:15" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="215"/>
-      <c r="B90" s="215"/>
-      <c r="C90" s="222"/>
-      <c r="D90" s="223"/>
-      <c r="E90" s="224"/>
-      <c r="F90" s="225"/>
-      <c r="G90" s="225"/>
-      <c r="H90" s="221"/>
-      <c r="I90" s="221"/>
-      <c r="J90" s="221"/>
-      <c r="K90" s="221"/>
-      <c r="L90" s="219"/>
-      <c r="M90" s="226"/>
-      <c r="N90" s="226"/>
+      <c r="A90" s="13"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="203"/>
+      <c r="D90" s="110"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="34"/>
+      <c r="I90" s="34"/>
+      <c r="J90" s="34"/>
+      <c r="K90" s="34"/>
+      <c r="L90" s="6"/>
     </row>
     <row r="91" spans="1:15" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="215"/>
-      <c r="B91" s="215"/>
-      <c r="C91" s="222"/>
-      <c r="D91" s="227"/>
-      <c r="E91" s="224"/>
-      <c r="F91" s="221"/>
-      <c r="G91" s="221"/>
-      <c r="H91" s="221"/>
-      <c r="I91" s="221"/>
-      <c r="J91" s="221"/>
-      <c r="K91" s="217"/>
-      <c r="L91" s="219"/>
-      <c r="M91" s="226"/>
-      <c r="N91" s="226"/>
+      <c r="A91" s="13"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="203"/>
+      <c r="D91" s="204"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="34"/>
+      <c r="I91" s="34"/>
+      <c r="J91" s="34"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="6"/>
     </row>
     <row r="92" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="13"/>
@@ -38864,11 +38809,11 @@
     <row r="93" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
-      <c r="C93" s="198"/>
-      <c r="D93" s="198"/>
-      <c r="E93" s="199"/>
-      <c r="F93" s="199"/>
-      <c r="G93" s="199"/>
+      <c r="C93" s="209"/>
+      <c r="D93" s="209"/>
+      <c r="E93" s="210"/>
+      <c r="F93" s="210"/>
+      <c r="G93" s="210"/>
       <c r="H93" s="34"/>
       <c r="I93" s="110"/>
       <c r="J93" s="34"/>
@@ -38899,11 +38844,11 @@
       <c r="B95" s="13"/>
       <c r="C95" s="64"/>
       <c r="D95" s="5"/>
-      <c r="E95" s="198"/>
-      <c r="F95" s="198"/>
-      <c r="G95" s="198"/>
-      <c r="H95" s="199"/>
-      <c r="I95" s="199"/>
+      <c r="E95" s="209"/>
+      <c r="F95" s="209"/>
+      <c r="G95" s="209"/>
+      <c r="H95" s="210"/>
+      <c r="I95" s="210"/>
     </row>
     <row r="96" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="13"/>
